--- a/raw_data/20200818_saline/20200818_Sensor2_Test_15.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_15.xlsx
@@ -1,795 +1,1211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B52349-77F5-49E5-8EC7-CE745F6CAB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>12973.759823</v>
       </c>
       <c r="B2" s="1">
-        <v>3.603822</v>
+        <v>3.6038220000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.679000</v>
+        <v>-305.67899999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>12984.202594</v>
       </c>
       <c r="G2" s="1">
-        <v>3.606723</v>
+        <v>3.6067230000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1266.910000</v>
+        <v>1266.9100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.383000</v>
+        <v>-264.38299999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>12994.940483</v>
       </c>
       <c r="L2" s="1">
-        <v>3.609706</v>
+        <v>3.6097060000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1302.610000</v>
+        <v>1302.6099999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.183000</v>
+        <v>-202.18299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>13005.445253</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.612624</v>
+        <v>3.6126239999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1314.670000</v>
+        <v>1314.67</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.842000</v>
+        <v>-183.84200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>13016.023430</v>
+        <v>13016.023429999999</v>
       </c>
       <c r="V2" s="1">
-        <v>3.615562</v>
+        <v>3.6155620000000002</v>
       </c>
       <c r="W2" s="1">
-        <v>1327.410000</v>
+        <v>1327.41</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.445000</v>
+        <v>-171.44499999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>13026.820376</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.618561</v>
+        <v>3.6185610000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1344.890000</v>
+        <v>1344.89</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.857000</v>
+        <v>-168.857</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>13037.342476</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.621484</v>
+        <v>3.6214840000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1357.640000</v>
+        <v>1357.64</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.776000</v>
+        <v>-178.77600000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>13047.764445</v>
+        <v>13047.764445000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.624379</v>
+        <v>3.6243789999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1378.170000</v>
+        <v>1378.17</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.323000</v>
+        <v>-209.32300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>13058.308863</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.627308</v>
+        <v>3.6273080000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>13069.335424</v>
+        <v>13069.335424000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.630371</v>
+        <v>3.6303709999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.068000</v>
+        <v>-314.06799999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>13080.711169</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.633531</v>
+        <v>3.6335310000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1443.640000</v>
+        <v>1443.64</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.552000</v>
+        <v>-366.55200000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>13091.039892</v>
+        <v>13091.039892000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.636400</v>
+        <v>3.6364000000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1528.880000</v>
+        <v>1528.88</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.015000</v>
+        <v>-617.01499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>13101.790646</v>
+        <v>13101.790645999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>3.639386</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.190000</v>
+        <v>1683.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1066.510000</v>
+        <v>-1066.51</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>13112.493319</v>
+        <v>13112.493318999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.642359</v>
+        <v>3.6423589999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.030000</v>
+        <v>1978.03</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1846.310000</v>
+        <v>-1846.31</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>13122.813614</v>
+        <v>13122.813614000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.645226</v>
+        <v>3.6452260000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.340000</v>
+        <v>2366.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2746.350000</v>
+        <v>-2746.35</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>13133.501899</v>
+        <v>13133.501899000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.648195</v>
+        <v>3.6481949999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2855.450000</v>
+        <v>2855.45</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3734.460000</v>
+        <v>-3734.46</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>13144.629780</v>
+        <v>13144.629779999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.651286</v>
+        <v>3.6512859999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>4288.310000</v>
+        <v>4288.3100000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6123.080000</v>
+        <v>-6123.08</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>12974.163566</v>
+        <v>12974.163565999999</v>
       </c>
       <c r="B3" s="1">
-        <v>3.603934</v>
+        <v>3.6039340000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.590000</v>
+        <v>1240.5899999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.434000</v>
+        <v>-305.43400000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>12984.789857</v>
       </c>
       <c r="G3" s="1">
-        <v>3.606886</v>
+        <v>3.6068859999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1266.320000</v>
+        <v>1266.32</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.767000</v>
+        <v>-264.767</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>12995.306034</v>
+        <v>12995.306033999999</v>
       </c>
       <c r="L3" s="1">
         <v>3.609807</v>
       </c>
       <c r="M3" s="1">
-        <v>1302.920000</v>
+        <v>1302.92</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.759000</v>
+        <v>-201.75899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>13005.819237</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.612728</v>
+        <v>3.6127280000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1314.760000</v>
+        <v>1314.76</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.917000</v>
+        <v>-183.917</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>13016.740656</v>
@@ -798,43 +1214,43 @@
         <v>3.615761</v>
       </c>
       <c r="W3" s="1">
-        <v>1327.350000</v>
+        <v>1327.35</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.338000</v>
+        <v>-171.33799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>13027.162088</v>
+        <v>13027.162087999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.618656</v>
+        <v>3.6186560000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1344.400000</v>
+        <v>1344.4</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.606000</v>
+        <v>-168.60599999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>13037.672566</v>
+        <v>13037.672565999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.621576</v>
+        <v>3.6215760000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1357.520000</v>
+        <v>1357.52</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.765000</v>
+        <v>-178.76499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>13048.114092</v>
@@ -843,572 +1259,572 @@
         <v>3.624476</v>
       </c>
       <c r="AL3" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.305000</v>
+        <v>-209.30500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>13059.004751</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.627501</v>
+        <v>3.6275010000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.559000</v>
+        <v>-253.559</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>13070.013455</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.630559</v>
+        <v>3.6305589999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1424.330000</v>
+        <v>1424.33</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.066000</v>
+        <v>-314.06599999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>13081.139216</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.633650</v>
+        <v>3.6336499999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1443.600000</v>
+        <v>1443.6</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.575000</v>
+        <v>-366.57499999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>13091.397971</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.636499</v>
+        <v>3.6364990000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.022000</v>
+        <v>-617.02200000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>13102.173094</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.639493</v>
+        <v>3.6394929999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.150000</v>
+        <v>1683.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1066.520000</v>
+        <v>-1066.52</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>13112.898055</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.642472</v>
+        <v>3.6424720000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.110000</v>
+        <v>1978.11</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1846.620000</v>
+        <v>-1846.62</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>13123.320007</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.645367</v>
+        <v>3.6453669999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.040000</v>
+        <v>2366.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2746.460000</v>
+        <v>-2746.46</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>13133.980011</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.648328</v>
+        <v>3.6483279999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2854.500000</v>
+        <v>2854.5</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3734.250000</v>
+        <v>-3734.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>13144.898941</v>
+        <v>13144.898940999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.651361</v>
+        <v>3.6513610000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4281.980000</v>
+        <v>4281.9799999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6109.820000</v>
+        <v>-6109.82</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>12974.509277</v>
+        <v>12974.509276999999</v>
       </c>
       <c r="B4" s="1">
-        <v>3.604030</v>
+        <v>3.6040299999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.800000</v>
+        <v>1240.8</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.728000</v>
+        <v>-305.72800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>12985.141058</v>
+        <v>12985.141057999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.606984</v>
+        <v>3.6069840000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.860000</v>
+        <v>1266.8599999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.774000</v>
+        <v>-264.774</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>12995.997458</v>
       </c>
       <c r="L4" s="1">
-        <v>3.609999</v>
+        <v>3.6099990000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1302.770000</v>
+        <v>1302.77</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.776000</v>
+        <v>-201.77600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>13006.508870</v>
+        <v>13006.50887</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.612919</v>
+        <v>3.6129190000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1314.700000</v>
+        <v>1314.7</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.996000</v>
+        <v>-183.99600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>13017.084871</v>
+        <v>13017.084870999999</v>
       </c>
       <c r="V4" s="1">
-        <v>3.615857</v>
+        <v>3.6158570000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1327.210000</v>
+        <v>1327.21</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.587000</v>
+        <v>-171.58699999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>13027.508823</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.618752</v>
+        <v>3.6187520000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1344.780000</v>
+        <v>1344.78</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.750000</v>
+        <v>-168.75</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>13038.014585</v>
+        <v>13038.014585000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.621671</v>
+        <v>3.6216710000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1357.590000</v>
+        <v>1357.59</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.799000</v>
+        <v>-178.79900000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>13048.773275</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.624659</v>
+        <v>3.6246589999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.309000</v>
+        <v>-209.309</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>13059.414941</v>
+        <v>13059.414941000001</v>
       </c>
       <c r="AP4" s="1">
         <v>3.627615</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.565000</v>
+        <v>-253.565</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>13070.443487</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.630679</v>
+        <v>3.6306790000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1424.320000</v>
+        <v>1424.32</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.076000</v>
+        <v>-314.07600000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>13081.496833</v>
+        <v>13081.496832999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.633749</v>
+        <v>3.6337489999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.600000</v>
+        <v>-366.6</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>13091.758600</v>
+        <v>13091.758599999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.636600</v>
+        <v>3.6366000000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1528.880000</v>
+        <v>1528.88</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.011000</v>
+        <v>-617.01099999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>13102.548564</v>
+        <v>13102.548564000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.639597</v>
+        <v>3.6395970000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1066.490000</v>
+        <v>-1066.49</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>13113.321638</v>
+        <v>13113.321637999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.642589</v>
+        <v>3.6425890000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.060000</v>
+        <v>1978.06</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1846.680000</v>
+        <v>-1846.68</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>13123.754984</v>
+        <v>13123.754983999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.645487</v>
+        <v>3.6454870000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2365.890000</v>
+        <v>2365.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2746.260000</v>
+        <v>-2746.26</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>13134.409546</v>
+        <v>13134.409546000001</v>
       </c>
       <c r="BY4" s="1">
         <v>3.648447</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2854.320000</v>
+        <v>2854.32</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3734.780000</v>
+        <v>-3734.78</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>13145.435149</v>
+        <v>13145.435149000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.651510</v>
+        <v>3.65151</v>
       </c>
       <c r="CE4" s="1">
-        <v>4298.440000</v>
+        <v>4298.4399999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6119.570000</v>
+        <v>-6119.57</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>12975.205660</v>
+        <v>12975.20566</v>
       </c>
       <c r="B5" s="1">
-        <v>3.604224</v>
+        <v>3.6042239999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1240.700000</v>
+        <v>1240.7</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.505000</v>
+        <v>-305.505</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>12985.833971</v>
       </c>
       <c r="G5" s="1">
-        <v>3.607176</v>
+        <v>3.6071759999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1266.350000</v>
+        <v>1266.3499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.183000</v>
+        <v>-265.18299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>12996.345649</v>
+        <v>12996.345649000001</v>
       </c>
       <c r="L5" s="1">
         <v>3.610096</v>
       </c>
       <c r="M5" s="1">
-        <v>1302.920000</v>
+        <v>1302.92</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.695000</v>
+        <v>-201.69499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>13006.863811</v>
+        <v>13006.863810999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.613018</v>
+        <v>3.6130179999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1314.630000</v>
+        <v>1314.63</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.971000</v>
+        <v>-183.971</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>13017.429590</v>
+        <v>13017.42959</v>
       </c>
       <c r="V5" s="1">
-        <v>3.615953</v>
+        <v>3.6159530000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1327.370000</v>
+        <v>1327.37</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.702000</v>
+        <v>-170.702</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>13028.178428</v>
+        <v>13028.178427999999</v>
       </c>
       <c r="AA5" s="1">
         <v>3.618938</v>
       </c>
       <c r="AB5" s="1">
-        <v>1344.620000</v>
+        <v>1344.62</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.620000</v>
+        <v>-168.62</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>13038.674233</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.621854</v>
+        <v>3.6218539999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1357.450000</v>
+        <v>1357.45</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.875000</v>
+        <v>-178.875</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>13049.160683</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.624767</v>
+        <v>3.6247669999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.337000</v>
+        <v>-209.33699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>13059.792398</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.627720</v>
+        <v>3.6277200000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.553000</v>
+        <v>-253.553</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>13070.830366</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.630786</v>
+        <v>3.6307860000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1424.310000</v>
+        <v>1424.31</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.091000</v>
+        <v>-314.09100000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>13081.855936</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.633849</v>
+        <v>3.6338490000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.604000</v>
+        <v>-366.60399999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>13092.179666</v>
@@ -1417,73 +1833,73 @@
         <v>3.636717</v>
       </c>
       <c r="BF5" s="1">
-        <v>1528.840000</v>
+        <v>1528.84</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.004000</v>
+        <v>-617.00400000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>13102.976613</v>
+        <v>13102.976613000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>3.639716</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.130000</v>
+        <v>1683.13</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1066.510000</v>
+        <v>-1066.51</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>13113.711989</v>
+        <v>13113.711988999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.642698</v>
+        <v>3.6426980000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.720000</v>
+        <v>1977.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1846.710000</v>
+        <v>-1846.71</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>13124.170633</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.645603</v>
+        <v>3.6456029999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.690000</v>
+        <v>2365.69</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2746.290000</v>
+        <v>-2746.29</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>13134.834618</v>
+        <v>13134.834618000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.648565</v>
+        <v>3.6485650000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.850000</v>
+        <v>2853.85</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3734.430000</v>
+        <v>-3734.43</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>13145.971787</v>
@@ -1492,30 +1908,30 @@
         <v>3.651659</v>
       </c>
       <c r="CE5" s="1">
-        <v>4295.250000</v>
+        <v>4295.25</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6100.560000</v>
+        <v>-6100.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>12975.553356</v>
       </c>
       <c r="B6" s="1">
-        <v>3.604320</v>
+        <v>3.60432</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.290000</v>
+        <v>1240.29</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.904000</v>
+        <v>-305.904</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>12986.179182</v>
@@ -1524,58 +1940,58 @@
         <v>3.607272</v>
       </c>
       <c r="H6" s="1">
-        <v>1266.130000</v>
+        <v>1266.1300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.713000</v>
+        <v>-264.71300000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>12996.692370</v>
+        <v>12996.692370000001</v>
       </c>
       <c r="L6" s="1">
-        <v>3.610192</v>
+        <v>3.6101920000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1302.810000</v>
+        <v>1302.81</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.097000</v>
+        <v>-202.09700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>13007.211010</v>
+        <v>13007.211010000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.613114</v>
+        <v>3.6131139999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1314.620000</v>
+        <v>1314.62</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.938000</v>
+        <v>-183.93799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>13018.085300</v>
+        <v>13018.085300000001</v>
       </c>
       <c r="V6" s="1">
-        <v>3.616135</v>
+        <v>3.6161349999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1327.620000</v>
+        <v>1327.62</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.556000</v>
+        <v>-170.55600000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>13028.554855</v>
@@ -1584,195 +2000,195 @@
         <v>3.619043</v>
       </c>
       <c r="AB6" s="1">
-        <v>1344.730000</v>
+        <v>1344.73</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.780000</v>
+        <v>-168.78</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>13039.043752</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.621957</v>
+        <v>3.6219570000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1357.510000</v>
+        <v>1357.51</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.997000</v>
+        <v>-178.99700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>13049.506400</v>
+        <v>13049.5064</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.624863</v>
+        <v>3.6248629999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.312000</v>
+        <v>-209.31200000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>13060.149548</v>
+        <v>13060.149547999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.627819</v>
+        <v>3.6278190000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.559000</v>
+        <v>-253.559</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>13071.195422</v>
+        <v>13071.195422000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.630888</v>
+        <v>3.6308880000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1424.350000</v>
+        <v>1424.35</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.104000</v>
+        <v>-314.10399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>13082.279023</v>
+        <v>13082.279022999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>3.633966</v>
       </c>
       <c r="BA6" s="1">
-        <v>1443.620000</v>
+        <v>1443.62</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.590000</v>
+        <v>-366.59</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>13092.485202</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.636801</v>
+        <v>3.6368010000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.016000</v>
+        <v>-617.01599999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>13103.329250</v>
+        <v>13103.329250000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.639814</v>
+        <v>3.6398139999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.110000</v>
+        <v>1683.11</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1066.480000</v>
+        <v>-1066.48</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>13114.133589</v>
+        <v>13114.133588999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.642815</v>
+        <v>3.6428150000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.700000</v>
+        <v>1977.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1846.710000</v>
+        <v>-1846.71</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>13124.600200</v>
+        <v>13124.600200000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.645722</v>
+        <v>3.6457220000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.910000</v>
+        <v>2365.91</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2746.530000</v>
+        <v>-2746.53</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>13135.255760</v>
+        <v>13135.25576</v>
       </c>
       <c r="BY6" s="1">
         <v>3.648682</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2854.300000</v>
+        <v>2854.3</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3734.190000</v>
+        <v>-3734.19</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>13146.513453</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.651809</v>
+        <v>3.6518090000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4285.390000</v>
+        <v>4285.3900000000003</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6120.540000</v>
+        <v>-6120.54</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>12975.896588</v>
       </c>
       <c r="B7" s="1">
-        <v>3.604416</v>
+        <v>3.6044160000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1240.270000</v>
+        <v>1240.27</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.760000</v>
+        <v>-305.76</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>12986.522879</v>
@@ -1781,103 +2197,103 @@
         <v>3.607367</v>
       </c>
       <c r="H7" s="1">
-        <v>1266.340000</v>
+        <v>1266.3399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.428000</v>
+        <v>-264.428</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>12997.349552</v>
       </c>
       <c r="L7" s="1">
-        <v>3.610375</v>
+        <v>3.6103749999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1302.760000</v>
+        <v>1302.76</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.709000</v>
+        <v>-201.709</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>13007.891025</v>
+        <v>13007.891025000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.613303</v>
+        <v>3.6133030000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1314.720000</v>
+        <v>1314.72</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.880000</v>
+        <v>-183.88</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>13018.458293</v>
       </c>
       <c r="V7" s="1">
-        <v>3.616238</v>
+        <v>3.6162380000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1327.400000</v>
+        <v>1327.4</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.674000</v>
+        <v>-170.67400000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>13028.905029</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.619140</v>
+        <v>3.6191399999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1344.760000</v>
+        <v>1344.76</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.748000</v>
+        <v>-168.74799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>13039.389960</v>
+        <v>13039.38996</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.622053</v>
+        <v>3.6220530000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1357.490000</v>
+        <v>1357.49</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.007000</v>
+        <v>-179.00700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>13049.858555</v>
+        <v>13049.858555000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.624961</v>
+        <v>3.6249609999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1378.120000</v>
+        <v>1378.12</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.331000</v>
+        <v>-209.33099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>13060.581558</v>
@@ -1886,73 +2302,73 @@
         <v>3.627939</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.549000</v>
+        <v>-253.54900000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>13071.623998</v>
+        <v>13071.623997999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.631007</v>
+        <v>3.6310069999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.083000</v>
+        <v>-314.08300000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>13082.571199</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.634048</v>
+        <v>3.6340479999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.548000</v>
+        <v>-366.548</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>13092.845793</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.636902</v>
+        <v>3.6369020000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1528.890000</v>
+        <v>1528.89</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.018000</v>
+        <v>-617.01800000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>13103.701731</v>
+        <v>13103.701730999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.639917</v>
+        <v>3.6399170000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.090000</v>
+        <v>1683.09</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1066.540000</v>
+        <v>-1066.54</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>13114.529428</v>
@@ -1961,13 +2377,13 @@
         <v>3.642925</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.650000</v>
+        <v>1977.65</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1846.660000</v>
+        <v>-1846.66</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>13125.031509</v>
@@ -1976,195 +2392,195 @@
         <v>3.645842</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.820000</v>
+        <v>2365.8200000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2746.270000</v>
+        <v>-2746.27</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>13135.679801</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.648800</v>
+        <v>3.6488</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.750000</v>
+        <v>2853.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3733.800000</v>
+        <v>-3733.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>13147.053107</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.651959</v>
+        <v>3.6519590000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4305.420000</v>
+        <v>4305.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6109.120000</v>
+        <v>-6109.12</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>12976.558790</v>
+        <v>12976.558789999999</v>
       </c>
       <c r="B8" s="1">
-        <v>3.604600</v>
+        <v>3.6046</v>
       </c>
       <c r="C8" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.659000</v>
+        <v>-305.65899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>12987.188546</v>
+        <v>12987.188545999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3.607552</v>
+        <v>3.6075520000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1266.310000</v>
+        <v>1266.31</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.923000</v>
+        <v>-264.923</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>12997.727006</v>
+        <v>12997.727005999999</v>
       </c>
       <c r="L8" s="1">
-        <v>3.610480</v>
+        <v>3.6104799999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1302.860000</v>
+        <v>1302.8599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.865000</v>
+        <v>-201.86500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>13008.255585</v>
+        <v>13008.255585000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.613404</v>
+        <v>3.6134040000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1314.770000</v>
+        <v>1314.77</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.940000</v>
+        <v>-183.94</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>13018.803043</v>
       </c>
       <c r="V8" s="1">
-        <v>3.616334</v>
+        <v>3.6163340000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1327.630000</v>
+        <v>1327.63</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.682000</v>
+        <v>-170.68199999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>13029.254710</v>
+        <v>13029.254709999999</v>
       </c>
       <c r="AA8" s="1">
         <v>3.619237</v>
       </c>
       <c r="AB8" s="1">
-        <v>1344.520000</v>
+        <v>1344.52</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.740000</v>
+        <v>-168.74</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>13039.736664</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.622149</v>
+        <v>3.6221489999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1357.460000</v>
+        <v>1357.46</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.977000</v>
+        <v>-178.977</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>13050.288109</v>
+        <v>13050.288108999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.625080</v>
+        <v>3.6250800000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1378.140000</v>
+        <v>1378.14</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.285000</v>
+        <v>-209.285</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>13060.873708</v>
+        <v>13060.873707999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.628020</v>
+        <v>3.6280199999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.560000</v>
+        <v>-253.56</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>13071.924541</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.631090</v>
+        <v>3.6310899999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1424.340000</v>
+        <v>1424.34</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.091000</v>
+        <v>-314.09100000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>13082.929312</v>
@@ -2173,73 +2589,73 @@
         <v>3.634147</v>
       </c>
       <c r="BA8" s="1">
-        <v>1443.650000</v>
+        <v>1443.65</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.558000</v>
+        <v>-366.55799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>13093.206881</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.637002</v>
+        <v>3.6370019999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1528.910000</v>
+        <v>1528.91</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.036000</v>
+        <v>-617.03599999999994</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>13104.078196</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.640022</v>
+        <v>3.6400220000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1066.440000</v>
+        <v>-1066.44</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>13114.953476</v>
+        <v>13114.953476000001</v>
       </c>
       <c r="BO8" s="1">
         <v>3.643043</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.760000</v>
+        <v>1977.76</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1846.660000</v>
+        <v>-1846.66</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>13125.439399</v>
+        <v>13125.439399000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.645955</v>
+        <v>3.6459549999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.880000</v>
+        <v>2365.88</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2746.310000</v>
+        <v>-2746.31</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>13136.100408</v>
@@ -2248,347 +2664,347 @@
         <v>3.648917</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.000000</v>
+        <v>2854</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3734.790000</v>
+        <v>-3734.79</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>13147.595194</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.652110</v>
+        <v>3.65211</v>
       </c>
       <c r="CE8" s="1">
-        <v>4281.480000</v>
+        <v>4281.4799999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6108.900000</v>
+        <v>-6108.9</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>12976.918378</v>
       </c>
       <c r="B9" s="1">
-        <v>3.604700</v>
+        <v>3.6046999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1240.790000</v>
+        <v>1240.79</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.513000</v>
+        <v>-305.51299999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>12987.559020</v>
+        <v>12987.559020000001</v>
       </c>
       <c r="G9" s="1">
-        <v>3.607655</v>
+        <v>3.6076549999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1266.490000</v>
+        <v>1266.49</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.963000</v>
+        <v>-264.96300000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>12998.074233</v>
+        <v>12998.074232999999</v>
       </c>
       <c r="L9" s="1">
         <v>3.610576</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.010000</v>
+        <v>1303.01</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.156000</v>
+        <v>-202.15600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>13008.605265</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.613501</v>
+        <v>3.6135009999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1314.640000</v>
+        <v>1314.64</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.936000</v>
+        <v>-183.93600000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>13019.149251</v>
+        <v>13019.149251000001</v>
       </c>
       <c r="V9" s="1">
-        <v>3.616430</v>
+        <v>3.6164299999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1327.670000</v>
+        <v>1327.67</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.673000</v>
+        <v>-170.673</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>13029.678828</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.619355</v>
+        <v>3.6193550000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1344.630000</v>
+        <v>1344.63</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.754000</v>
+        <v>-168.75399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>13040.157272</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.622266</v>
+        <v>3.6222660000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1357.490000</v>
+        <v>1357.49</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.931000</v>
+        <v>-178.93100000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>13050.554950</v>
+        <v>13050.55495</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.625154</v>
+        <v>3.6251540000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1378.170000</v>
+        <v>1378.17</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.327000</v>
+        <v>-209.327</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>13061.234299</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.628121</v>
+        <v>3.6281210000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.566000</v>
+        <v>-253.566</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>13072.288108</v>
+        <v>13072.288108000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.631191</v>
+        <v>3.6311909999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.086000</v>
+        <v>-314.08600000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>13083.292349</v>
+        <v>13083.292348999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.634248</v>
+        <v>3.6342479999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1443.630000</v>
+        <v>1443.63</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.575000</v>
+        <v>-366.57499999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>13093.927600</v>
+        <v>13093.927600000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.637202</v>
+        <v>3.6372019999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.011000</v>
+        <v>-617.01099999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>13104.847526</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.640235</v>
+        <v>3.6402350000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.010000</v>
+        <v>1683.01</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1066.490000</v>
+        <v>-1066.49</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>13115.350803</v>
+        <v>13115.350802999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.643153</v>
+        <v>3.6431529999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.640000</v>
+        <v>1977.64</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1846.480000</v>
+        <v>-1846.48</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>13125.871942</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.646076</v>
+        <v>3.6460759999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2365.470000</v>
+        <v>2365.4699999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2746.060000</v>
+        <v>-2746.06</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>13136.546808</v>
+        <v>13136.546807999999</v>
       </c>
       <c r="BY9" s="1">
         <v>3.649041</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.780000</v>
+        <v>2854.78</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3734.460000</v>
+        <v>-3734.46</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>13148.438392</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.652344</v>
+        <v>3.6523439999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4300.730000</v>
+        <v>4300.7299999999996</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6102.630000</v>
+        <v>-6102.63</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>12977.263066</v>
       </c>
       <c r="B10" s="1">
-        <v>3.604795</v>
+        <v>3.6047950000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.650000</v>
+        <v>1240.6500000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.895000</v>
+        <v>-305.89499999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>12987.904732</v>
+        <v>12987.904732000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.607751</v>
+        <v>3.6077509999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1266.250000</v>
+        <v>1266.25</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.343000</v>
+        <v>-264.34300000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>12998.420446</v>
       </c>
       <c r="L10" s="1">
-        <v>3.610672</v>
+        <v>3.6106720000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1302.980000</v>
+        <v>1302.98</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.756000</v>
+        <v>-201.756</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>13009.025177</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.613618</v>
+        <v>3.6136180000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1314.630000</v>
+        <v>1314.63</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.975000</v>
+        <v>-183.97499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>13019.577298</v>
@@ -2597,178 +3013,178 @@
         <v>3.616549</v>
       </c>
       <c r="W10" s="1">
-        <v>1327.680000</v>
+        <v>1327.68</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.580000</v>
+        <v>-170.58</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>13029.956052</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.619432</v>
+        <v>3.6194320000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1344.890000</v>
+        <v>1344.89</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.053000</v>
+        <v>-169.053</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>13040.522824</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.622367</v>
+        <v>3.6223670000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1357.480000</v>
+        <v>1357.48</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.948000</v>
+        <v>-178.94800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>13050.907562</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.625252</v>
+        <v>3.6252520000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.295000</v>
+        <v>-209.29499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>13061.594892</v>
+        <v>13061.594891999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.628221</v>
+        <v>3.6282209999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1399.760000</v>
+        <v>1399.76</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.538000</v>
+        <v>-253.53800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>13072.653164</v>
+        <v>13072.653163999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.631293</v>
+        <v>3.6312929999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1424.340000</v>
+        <v>1424.34</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.047000</v>
+        <v>-314.04700000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>13084.008077</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.634447</v>
+        <v>3.6344470000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.637000</v>
+        <v>-366.637</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>13094.316432</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.637310</v>
+        <v>3.6373099999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1528.880000</v>
+        <v>1528.88</v>
       </c>
       <c r="BG10" s="1">
-        <v>-616.991000</v>
+        <v>-616.99099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>13105.224449</v>
+        <v>13105.224448999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.640340</v>
+        <v>3.6403400000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.070000</v>
+        <v>1683.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1066.420000</v>
+        <v>-1066.42</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>13115.768900</v>
+        <v>13115.768899999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.643269</v>
+        <v>3.6432690000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.620000</v>
+        <v>1977.62</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1846.600000</v>
+        <v>-1846.6</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>13126.606027</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.646279</v>
+        <v>3.6462789999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.840000</v>
+        <v>2365.84</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2746.480000</v>
+        <v>-2746.48</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>13137.282412</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.649245</v>
+        <v>3.6492450000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2854.320000</v>
+        <v>2854.32</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3733.980000</v>
+        <v>-3733.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>13148.672008</v>
@@ -2777,90 +3193,90 @@
         <v>3.652409</v>
       </c>
       <c r="CE10" s="1">
-        <v>4300.580000</v>
+        <v>4300.58</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6104.810000</v>
+        <v>-6104.81</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>12977.606297</v>
       </c>
       <c r="B11" s="1">
-        <v>3.604891</v>
+        <v>3.6048909999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.995000</v>
+        <v>-305.995</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>12988.253915</v>
+        <v>12988.253914999999</v>
       </c>
       <c r="G11" s="1">
-        <v>3.607848</v>
+        <v>3.6078480000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.688000</v>
+        <v>-264.68799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>12998.845522</v>
       </c>
       <c r="L11" s="1">
-        <v>3.610790</v>
+        <v>3.6107900000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1303.130000</v>
+        <v>1303.1300000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.631000</v>
+        <v>-201.631</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>13009.319039</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.613700</v>
+        <v>3.6137000000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1314.600000</v>
+        <v>1314.6</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.922000</v>
+        <v>-183.922</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>13019.852049</v>
+        <v>13019.852048999999</v>
       </c>
       <c r="V11" s="1">
-        <v>3.616626</v>
+        <v>3.6166260000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1327.740000</v>
+        <v>1327.74</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.560000</v>
+        <v>-170.56</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>13030.305236</v>
@@ -2869,88 +3285,88 @@
         <v>3.619529</v>
       </c>
       <c r="AB11" s="1">
-        <v>1344.700000</v>
+        <v>1344.7</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.617000</v>
+        <v>-168.61699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>13040.811494</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.622448</v>
+        <v>3.6224479999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1357.510000</v>
+        <v>1357.51</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.008000</v>
+        <v>-179.00800000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>13051.255754</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.625349</v>
+        <v>3.6253489999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1378.120000</v>
+        <v>1378.12</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.331000</v>
+        <v>-209.33099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>13062.320010</v>
+        <v>13062.320009999999</v>
       </c>
       <c r="AP11" s="1">
         <v>3.628422</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.516000</v>
+        <v>-253.51599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>13073.387281</v>
+        <v>13073.387280999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.631496</v>
+        <v>3.6314959999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1424.330000</v>
+        <v>1424.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.065000</v>
+        <v>-314.065</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>13084.366716</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.634546</v>
+        <v>3.6345459999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1443.630000</v>
+        <v>1443.63</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.672000</v>
+        <v>-366.67200000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>13094.695903</v>
@@ -2959,270 +3375,270 @@
         <v>3.637416</v>
       </c>
       <c r="BF11" s="1">
-        <v>1528.890000</v>
+        <v>1528.89</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.011000</v>
+        <v>-617.01099999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>13105.598432</v>
+        <v>13105.598432000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>3.640444</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1066.420000</v>
+        <v>-1066.42</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>13116.476194</v>
+        <v>13116.476194000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.643466</v>
+        <v>3.6434660000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.800000</v>
+        <v>1977.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1846.630000</v>
+        <v>-1846.63</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>13126.748837</v>
+        <v>13126.748836999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.646319</v>
+        <v>3.6463190000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.450000</v>
+        <v>2365.4499999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2746.250000</v>
+        <v>-2746.25</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>13137.390006</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.649275</v>
+        <v>3.6492749999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2854.300000</v>
+        <v>2854.3</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3733.740000</v>
+        <v>-3733.74</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>13149.191339</v>
+        <v>13149.191339000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.652553</v>
+        <v>3.6525530000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4284.430000</v>
+        <v>4284.43</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6102.540000</v>
+        <v>-6102.54</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>12978.033849</v>
+        <v>12978.033848999999</v>
       </c>
       <c r="B12" s="1">
-        <v>3.605009</v>
+        <v>3.6050089999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1240.770000</v>
+        <v>1240.77</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.265000</v>
+        <v>-306.26499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>12988.665595</v>
       </c>
       <c r="G12" s="1">
-        <v>3.607963</v>
+        <v>3.6079629999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1266.710000</v>
+        <v>1266.71</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.471000</v>
+        <v>-264.471</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>12999.126222</v>
+        <v>12999.126222000001</v>
       </c>
       <c r="L12" s="1">
         <v>3.610868</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.010000</v>
+        <v>1303.01</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.826000</v>
+        <v>-201.82599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>13009.670672</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.613797</v>
+        <v>3.6137969999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1314.640000</v>
+        <v>1314.64</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.825000</v>
+        <v>-183.82499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>13020.196769</v>
       </c>
       <c r="V12" s="1">
-        <v>3.616721</v>
+        <v>3.6167210000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1327.750000</v>
+        <v>1327.75</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.531000</v>
+        <v>-170.53100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>13030.649497</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.619625</v>
+        <v>3.6196250000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1344.670000</v>
+        <v>1344.67</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.741000</v>
+        <v>-168.74100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>13041.499446</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.622639</v>
+        <v>3.6226389999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1357.560000</v>
+        <v>1357.56</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.993000</v>
+        <v>-178.99299999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>13051.953623</v>
+        <v>13051.953622999999</v>
       </c>
       <c r="AK12" s="1">
         <v>3.625543</v>
       </c>
       <c r="AL12" s="1">
-        <v>1378.130000</v>
+        <v>1378.13</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>13062.700441</v>
+        <v>13062.700441000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.628528</v>
+        <v>3.6285280000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.586000</v>
+        <v>-253.58600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>13073.748826</v>
+        <v>13073.748825999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.631597</v>
+        <v>3.6315970000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1424.320000</v>
+        <v>1424.32</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.048000</v>
+        <v>-314.048</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>13084.726285</v>
+        <v>13084.726285000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>3.634646</v>
       </c>
       <c r="BA12" s="1">
-        <v>1443.640000</v>
+        <v>1443.64</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.583000</v>
+        <v>-366.58300000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>13095.367950</v>
+        <v>13095.36795</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.637602</v>
+        <v>3.6376019999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1528.880000</v>
+        <v>1528.88</v>
       </c>
       <c r="BG12" s="1">
-        <v>-616.967000</v>
+        <v>-616.96699999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>13106.134112</v>
@@ -3231,210 +3647,210 @@
         <v>3.640593</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1066.400000</v>
+        <v>-1066.4000000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>13116.608130</v>
+        <v>13116.608130000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.643502</v>
+        <v>3.6435019999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.720000</v>
+        <v>1977.72</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1846.620000</v>
+        <v>-1846.62</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>13127.161012</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.646434</v>
+        <v>3.6464340000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.420000</v>
+        <v>2365.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2746.350000</v>
+        <v>-2746.35</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>13137.842358</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.649401</v>
+        <v>3.6494010000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.420000</v>
+        <v>2853.42</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3733.680000</v>
+        <v>-3733.68</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>13149.708181</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.652697</v>
+        <v>3.6526969999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4283.050000</v>
+        <v>4283.05</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6120.100000</v>
+        <v>-6120.1</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>12978.305198</v>
       </c>
       <c r="B13" s="1">
-        <v>3.605085</v>
+        <v>3.6050849999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.680000</v>
+        <v>1240.68</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.077000</v>
+        <v>-306.077</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>12988.957739</v>
+        <v>12988.957738999999</v>
       </c>
       <c r="G13" s="1">
         <v>3.608044</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.200000</v>
+        <v>1267.2</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.121000</v>
+        <v>-264.12099999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>12999.471932</v>
       </c>
       <c r="L13" s="1">
-        <v>3.610964</v>
+        <v>3.6109640000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1302.730000</v>
+        <v>1302.73</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.794000</v>
+        <v>-201.79400000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>13010.018864</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.613894</v>
+        <v>3.6138940000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1314.710000</v>
+        <v>1314.71</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.880000</v>
+        <v>-183.88</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>13020.544005</v>
       </c>
       <c r="V13" s="1">
-        <v>3.616818</v>
+        <v>3.6168179999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1327.690000</v>
+        <v>1327.69</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.589000</v>
+        <v>-170.589</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>13031.348354</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.619819</v>
+        <v>3.6198190000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1344.700000</v>
+        <v>1344.7</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.813000</v>
+        <v>-168.81299999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>13041.848133</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.622736</v>
+        <v>3.6227360000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1357.500000</v>
+        <v>1357.5</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.969000</v>
+        <v>-178.96899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>13052.301815</v>
+        <v>13052.301815000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.625639</v>
+        <v>3.6256390000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1378.120000</v>
+        <v>1378.12</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>13063.087088</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.628635</v>
+        <v>3.6286350000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1399.800000</v>
+        <v>1399.8</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.544000</v>
+        <v>-253.54400000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>13074.418426</v>
@@ -3443,165 +3859,165 @@
         <v>3.631783</v>
       </c>
       <c r="AV13" s="1">
-        <v>1424.320000</v>
+        <v>1424.32</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.084000</v>
+        <v>-314.084</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>13085.388940</v>
+        <v>13085.388940000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.634830</v>
+        <v>3.63483</v>
       </c>
       <c r="BA13" s="1">
-        <v>1443.640000</v>
+        <v>1443.64</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.578000</v>
+        <v>-366.57799999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>13095.781615</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.637717</v>
+        <v>3.6377169999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG13" s="1">
-        <v>-616.991000</v>
+        <v>-616.99099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>13106.392032</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.640664</v>
+        <v>3.6406640000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1066.400000</v>
+        <v>-1066.4000000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>13117.016867</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.643616</v>
+        <v>3.6436160000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.590000</v>
+        <v>1977.59</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1846.580000</v>
+        <v>-1846.58</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>13127.590548</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.646553</v>
+        <v>3.6465529999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.250000</v>
+        <v>2365.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2746.140000</v>
+        <v>-2746.14</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>13138.271399</v>
+        <v>13138.271398999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.649520</v>
+        <v>3.6495199999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.600000</v>
+        <v>2853.6</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3734.370000</v>
+        <v>-3734.37</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>13150.227958</v>
+        <v>13150.227957999999</v>
       </c>
       <c r="CD13" s="1">
         <v>3.652841</v>
       </c>
       <c r="CE13" s="1">
-        <v>4301.090000</v>
+        <v>4301.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6119.220000</v>
+        <v>-6119.22</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>12978.646442</v>
+        <v>12978.646441999999</v>
       </c>
       <c r="B14" s="1">
-        <v>3.605180</v>
+        <v>3.6051799999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.820000</v>
+        <v>1240.82</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.185000</v>
+        <v>-306.185</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>12989.302955</v>
+        <v>12989.302954999999</v>
       </c>
       <c r="G14" s="1">
-        <v>3.608140</v>
+        <v>3.6081400000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.000000</v>
+        <v>1267</v>
       </c>
       <c r="I14" s="1">
-        <v>-263.949000</v>
+        <v>-263.94900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>12999.818636</v>
       </c>
       <c r="L14" s="1">
-        <v>3.611061</v>
+        <v>3.6110609999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.070000</v>
+        <v>1303.07</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.811000</v>
+        <v>-201.81100000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>13010.711808</v>
@@ -3610,73 +4026,73 @@
         <v>3.614087</v>
       </c>
       <c r="R14" s="1">
-        <v>1314.720000</v>
+        <v>1314.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.970000</v>
+        <v>-183.97</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>13021.227983</v>
+        <v>13021.227983000001</v>
       </c>
       <c r="V14" s="1">
-        <v>3.617008</v>
+        <v>3.6170079999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1327.670000</v>
+        <v>1327.67</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.605000</v>
+        <v>-170.60499999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>13031.696050</v>
+        <v>13031.69605</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.619916</v>
+        <v>3.6199159999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1344.870000</v>
+        <v>1344.87</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.712000</v>
+        <v>-168.71199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>13042.188886</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.622830</v>
+        <v>3.62283</v>
       </c>
       <c r="AG14" s="1">
-        <v>1357.520000</v>
+        <v>1357.52</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.049000</v>
+        <v>-179.04900000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>13052.648518</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.625736</v>
+        <v>3.6257359999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1378.170000</v>
+        <v>1378.17</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.291000</v>
+        <v>-209.291</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>13063.757447</v>
@@ -3685,58 +4101,58 @@
         <v>3.628822</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1399.760000</v>
+        <v>1399.76</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.535000</v>
+        <v>-253.535</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>13074.840521</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.631900</v>
+        <v>3.6318999999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.069000</v>
+        <v>-314.06900000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>13085.801680</v>
+        <v>13085.80168</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.634945</v>
+        <v>3.6349450000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1443.620000</v>
+        <v>1443.62</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.592000</v>
+        <v>-366.59199999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>13096.170508</v>
+        <v>13096.170507999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.637825</v>
+        <v>3.6378249999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG14" s="1">
-        <v>-616.992000</v>
+        <v>-616.99199999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>13106.765519</v>
@@ -3745,43 +4161,43 @@
         <v>3.640768</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.000000</v>
+        <v>1683</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1066.400000</v>
+        <v>-1066.4000000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>13117.412673</v>
+        <v>13117.412673000001</v>
       </c>
       <c r="BO14" s="1">
         <v>3.643726</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.680000</v>
+        <v>1977.68</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1846.370000</v>
+        <v>-1846.37</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>13128.006691</v>
+        <v>13128.006691000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.646669</v>
+        <v>3.6466690000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.290000</v>
+        <v>2365.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2746.330000</v>
+        <v>-2746.33</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>13138.753013</v>
@@ -3790,105 +4206,105 @@
         <v>3.649654</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.450000</v>
+        <v>2854.45</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3733.210000</v>
+        <v>-3733.21</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>13150.746276</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.652985</v>
+        <v>3.6529850000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4298.060000</v>
+        <v>4298.0600000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6120.210000</v>
+        <v>-6120.21</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>12978.989143</v>
+        <v>12978.989143000001</v>
       </c>
       <c r="B15" s="1">
-        <v>3.605275</v>
+        <v>3.6052749999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1241.020000</v>
+        <v>1241.02</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.170000</v>
+        <v>-306.17</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>12989.647675</v>
       </c>
       <c r="G15" s="1">
-        <v>3.608235</v>
+        <v>3.6082350000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.300000</v>
+        <v>1267.3</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.768000</v>
+        <v>-263.76799999999997</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>13000.513035</v>
       </c>
       <c r="L15" s="1">
-        <v>3.611254</v>
+        <v>3.6112540000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1302.700000</v>
+        <v>1302.7</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.780000</v>
+        <v>-201.78</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>13011.062477</v>
+        <v>13011.062476999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.614184</v>
+        <v>3.6141839999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1314.170000</v>
+        <v>1314.17</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.505000</v>
+        <v>-184.505</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>13021.570688</v>
       </c>
       <c r="V15" s="1">
-        <v>3.617103</v>
+        <v>3.6171030000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1327.690000</v>
+        <v>1327.69</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.578000</v>
+        <v>-170.578</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>13032.044705</v>
@@ -3897,255 +4313,255 @@
         <v>3.620012</v>
       </c>
       <c r="AB15" s="1">
-        <v>1344.670000</v>
+        <v>1344.67</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.702000</v>
+        <v>-168.702</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>13042.847572</v>
+        <v>13042.847572000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.623013</v>
+        <v>3.6230129999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1357.500000</v>
+        <v>1357.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.042000</v>
+        <v>-179.042</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>13053.303733</v>
+        <v>13053.303733000001</v>
       </c>
       <c r="AK15" s="1">
         <v>3.625918</v>
       </c>
       <c r="AL15" s="1">
-        <v>1378.140000</v>
+        <v>1378.14</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.329000</v>
+        <v>-209.32900000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>13064.170299</v>
+        <v>13064.170298999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.628936</v>
+        <v>3.6289359999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.528000</v>
+        <v>-253.52799999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>13075.205112</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.632001</v>
+        <v>3.6320009999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1424.330000</v>
+        <v>1424.33</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.029000</v>
+        <v>-314.029</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>13086.190970</v>
+        <v>13086.19097</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.635053</v>
+        <v>3.6350530000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1443.620000</v>
+        <v>1443.62</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.554000</v>
+        <v>-366.55399999999997</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>13096.530115</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.637925</v>
+        <v>3.6379250000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1528.830000</v>
+        <v>1528.83</v>
       </c>
       <c r="BG15" s="1">
-        <v>-616.942000</v>
+        <v>-616.94200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>13107.188110</v>
+        <v>13107.188109999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.640886</v>
+        <v>3.6408860000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.090000</v>
+        <v>1683.09</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1066.390000</v>
+        <v>-1066.3900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>13117.835269</v>
+        <v>13117.835268999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.643843</v>
+        <v>3.6438429999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.590000</v>
+        <v>1977.59</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1846.520000</v>
+        <v>-1846.52</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>13128.420386</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.646783</v>
+        <v>3.6467830000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2364.930000</v>
+        <v>2364.9299999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2746.080000</v>
+        <v>-2746.08</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>13139.112150</v>
+        <v>13139.112150000001</v>
       </c>
       <c r="BY15" s="1">
         <v>3.649753</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2853.790000</v>
+        <v>2853.79</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3734.340000</v>
+        <v>-3734.34</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>13151.305268</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.653140</v>
+        <v>3.6531400000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4284.810000</v>
+        <v>4284.8100000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6120.770000</v>
+        <v>-6120.77</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>12979.671175</v>
+        <v>12979.671174999999</v>
       </c>
       <c r="B16" s="1">
         <v>3.605464</v>
       </c>
       <c r="C16" s="1">
-        <v>1240.560000</v>
+        <v>1240.56</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.034000</v>
+        <v>-306.03399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>12990.340090</v>
+        <v>12990.34009</v>
       </c>
       <c r="G16" s="1">
         <v>3.608428</v>
       </c>
       <c r="H16" s="1">
-        <v>1266.230000</v>
+        <v>1266.23</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.077000</v>
+        <v>-264.077</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>13000.864202</v>
+        <v>13000.864202000001</v>
       </c>
       <c r="L16" s="1">
         <v>3.611351</v>
       </c>
       <c r="M16" s="1">
-        <v>1302.770000</v>
+        <v>1302.77</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.199000</v>
+        <v>-202.19900000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>13011.412158</v>
+        <v>13011.412157999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.614281</v>
+        <v>3.6142810000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1314.140000</v>
+        <v>1314.14</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.989000</v>
+        <v>-184.989</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>13021.914415</v>
+        <v>13021.914414999999</v>
       </c>
       <c r="V16" s="1">
-        <v>3.617198</v>
+        <v>3.6171980000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1327.630000</v>
+        <v>1327.63</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.733000</v>
+        <v>-170.733</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>13032.706866</v>
@@ -4154,181 +4570,181 @@
         <v>3.620196</v>
       </c>
       <c r="AB16" s="1">
-        <v>1344.890000</v>
+        <v>1344.89</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.736000</v>
+        <v>-168.73599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>13043.219571</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.623117</v>
+        <v>3.6231170000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1357.550000</v>
+        <v>1357.55</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.069000</v>
+        <v>-179.06899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>13053.696069</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.626027</v>
+        <v>3.6260270000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.309000</v>
+        <v>-209.309</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>13064.555478</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.629043</v>
+        <v>3.6290429999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.536000</v>
+        <v>-253.536</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>13075.569342</v>
+        <v>13075.569342000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.632103</v>
+        <v>3.6321029999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.087000</v>
+        <v>-314.08699999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>13086.552555</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.635153</v>
+        <v>3.6351529999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.550000</v>
+        <v>-366.55</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>13096.950769</v>
+        <v>13096.950768999999</v>
       </c>
       <c r="BE16" s="1">
         <v>3.638042</v>
       </c>
       <c r="BF16" s="1">
-        <v>1528.830000</v>
+        <v>1528.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-616.974000</v>
+        <v>-616.97400000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>13107.523902</v>
+        <v>13107.523902000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.640979</v>
+        <v>3.6409790000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1066.440000</v>
+        <v>-1066.44</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>13118.227569</v>
+        <v>13118.227569000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.643952</v>
+        <v>3.6439520000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.620000</v>
+        <v>1977.62</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1846.500000</v>
+        <v>-1846.5</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>13128.836529</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.646899</v>
+        <v>3.6468989999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.040000</v>
+        <v>2365.04</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2746.300000</v>
+        <v>-2746.3</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>13139.538707</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.649872</v>
+        <v>3.6498719999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2854.240000</v>
+        <v>2854.24</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3732.810000</v>
+        <v>-3732.81</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>13151.827555</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.653285</v>
+        <v>3.6532849999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4302.360000</v>
+        <v>4302.3599999999997</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6118.580000</v>
+        <v>-6118.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>12980.013878</v>
       </c>
@@ -4336,43 +4752,43 @@
         <v>3.605559</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.200000</v>
+        <v>1240.2</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.911000</v>
+        <v>-305.911</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>12990.684808</v>
       </c>
       <c r="G17" s="1">
-        <v>3.608524</v>
+        <v>3.6085240000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1266.470000</v>
+        <v>1266.47</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.528000</v>
+        <v>-263.52800000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>13001.208426</v>
+        <v>13001.208425999999</v>
       </c>
       <c r="L17" s="1">
-        <v>3.611447</v>
+        <v>3.6114470000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1302.740000</v>
+        <v>1302.74</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.808000</v>
+        <v>-201.80799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>13012.075772</v>
@@ -4381,193 +4797,193 @@
         <v>3.614465</v>
       </c>
       <c r="R17" s="1">
-        <v>1314.100000</v>
+        <v>1314.1</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.767000</v>
+        <v>-184.767</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>13022.574202</v>
       </c>
       <c r="V17" s="1">
-        <v>3.617382</v>
+        <v>3.6173820000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1327.730000</v>
+        <v>1327.73</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.632000</v>
+        <v>-170.63200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>13033.091264</v>
+        <v>13033.091264000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.620303</v>
+        <v>3.6203029999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1344.660000</v>
+        <v>1344.66</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.674000</v>
+        <v>-168.67400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>13043.565282</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.623213</v>
+        <v>3.6232129999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1357.510000</v>
+        <v>1357.51</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.047000</v>
+        <v>-179.047</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>13054.044261</v>
+        <v>13054.044260999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.626123</v>
+        <v>3.6261230000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1378.110000</v>
+        <v>1378.11</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.287000</v>
+        <v>-209.28700000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>13064.910154</v>
+        <v>13064.910153999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.629142</v>
+        <v>3.6291419999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1399.730000</v>
+        <v>1399.73</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.565000</v>
+        <v>-253.565</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>13075.998221</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.632222</v>
+        <v>3.6322220000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1424.280000</v>
+        <v>1424.28</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.019000</v>
+        <v>-314.01900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>13086.975145</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.635271</v>
+        <v>3.6352709999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1443.640000</v>
+        <v>1443.64</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.580000</v>
+        <v>-366.58</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>13097.254731</v>
+        <v>13097.254731000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.638126</v>
+        <v>3.6381260000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1528.840000</v>
+        <v>1528.84</v>
       </c>
       <c r="BG17" s="1">
-        <v>-616.954000</v>
+        <v>-616.95399999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>13107.914253</v>
+        <v>13107.914253000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.641087</v>
+        <v>3.6410870000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.060000</v>
+        <v>1683.06</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1066.360000</v>
+        <v>-1066.3599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>13118.652671</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.644070</v>
+        <v>3.6440700000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.740000</v>
+        <v>1977.74</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1846.350000</v>
+        <v>-1846.35</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>13129.249665</v>
+        <v>13129.249664999999</v>
       </c>
       <c r="BT17" s="1">
         <v>3.647014</v>
       </c>
       <c r="BU17" s="1">
-        <v>2365.090000</v>
+        <v>2365.09</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2746.220000</v>
+        <v>-2746.22</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>13139.960771</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.649989</v>
+        <v>3.6499890000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.560000</v>
+        <v>2853.56</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3733.050000</v>
+        <v>-3733.05</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>13152.345379</v>
@@ -4576,317 +4992,317 @@
         <v>3.653429</v>
       </c>
       <c r="CE17" s="1">
-        <v>4298.120000</v>
+        <v>4298.12</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6100.900000</v>
+        <v>-6100.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>12980.356150</v>
+        <v>12980.35615</v>
       </c>
       <c r="B18" s="1">
-        <v>3.605654</v>
+        <v>3.6056539999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1240.880000</v>
+        <v>1240.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.954000</v>
+        <v>-305.95400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>12991.032008</v>
       </c>
       <c r="G18" s="1">
-        <v>3.608620</v>
+        <v>3.6086200000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.754000</v>
+        <v>-263.75400000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>13001.867611</v>
       </c>
       <c r="L18" s="1">
-        <v>3.611630</v>
+        <v>3.6116299999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1302.580000</v>
+        <v>1302.58</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.931000</v>
+        <v>-201.93100000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>13012.459181</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.614572</v>
+        <v>3.6145719999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1314.670000</v>
+        <v>1314.67</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.798000</v>
+        <v>-183.798</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>13022.945598</v>
       </c>
       <c r="V18" s="1">
-        <v>3.617485</v>
+        <v>3.6174849999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>1327.700000</v>
+        <v>1327.7</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.623000</v>
+        <v>-170.62299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>13033.441936</v>
+        <v>13033.441935999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.620401</v>
+        <v>3.6204010000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1344.630000</v>
+        <v>1344.63</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.997000</v>
+        <v>-168.99700000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>13043.908052</v>
+        <v>13043.908052000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.623308</v>
+        <v>3.6233080000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1357.570000</v>
+        <v>1357.57</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.112000</v>
+        <v>-179.11199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>13054.391460</v>
+        <v>13054.391460000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.626220</v>
+        <v>3.62622</v>
       </c>
       <c r="AL18" s="1">
-        <v>1378.140000</v>
+        <v>1378.14</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.290000</v>
+        <v>-209.29</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>13065.330245</v>
+        <v>13065.330244999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.629258</v>
+        <v>3.6292580000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1399.790000</v>
+        <v>1399.79</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.551000</v>
+        <v>-253.55099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>13076.299784</v>
+        <v>13076.299784000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.632305</v>
+        <v>3.6323050000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.030000</v>
+        <v>-314.02999999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>13087.267289</v>
+        <v>13087.267288999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.635352</v>
+        <v>3.6353520000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1443.650000</v>
+        <v>1443.65</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.588000</v>
+        <v>-366.58800000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>13097.615819</v>
+        <v>13097.615819000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.638227</v>
+        <v>3.6382270000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1528.880000</v>
+        <v>1528.88</v>
       </c>
       <c r="BG18" s="1">
-        <v>-616.978000</v>
+        <v>-616.97799999999995</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>13108.289724</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.641192</v>
+        <v>3.6411920000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.040000</v>
+        <v>1683.04</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1066.320000</v>
+        <v>-1066.32</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>13119.047951</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.644180</v>
+        <v>3.64418</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.650000</v>
+        <v>1977.65</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1846.260000</v>
+        <v>-1846.26</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>13129.678208</v>
+        <v>13129.678207999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.647133</v>
+        <v>3.6471330000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2364.890000</v>
+        <v>2364.89</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2746.210000</v>
+        <v>-2746.21</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>13140.381875</v>
+        <v>13140.381874999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.650106</v>
+        <v>3.6501060000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.740000</v>
+        <v>2853.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3732.860000</v>
+        <v>-3732.86</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>13152.864194</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.653573</v>
+        <v>3.6535730000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4281.820000</v>
+        <v>4281.82</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6107.030000</v>
+        <v>-6107.03</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>12981.003428</v>
       </c>
       <c r="B19" s="1">
-        <v>3.605834</v>
+        <v>3.6058340000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.041000</v>
+        <v>-306.041</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>12991.762615</v>
       </c>
       <c r="G19" s="1">
-        <v>3.608823</v>
+        <v>3.6088230000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.900000</v>
+        <v>1265.9000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.946000</v>
+        <v>-263.94600000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>13002.242585</v>
       </c>
       <c r="L19" s="1">
-        <v>3.611734</v>
+        <v>3.6117340000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1302.700000</v>
+        <v>1302.7</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.708000</v>
+        <v>-201.708</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>13012.806379</v>
@@ -4895,73 +5311,73 @@
         <v>3.614668</v>
       </c>
       <c r="R19" s="1">
-        <v>1314.740000</v>
+        <v>1314.74</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.864000</v>
+        <v>-183.864</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>13023.292799</v>
+        <v>13023.292799000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.617581</v>
+        <v>3.6175809999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1327.690000</v>
+        <v>1327.69</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.548000</v>
+        <v>-170.548</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>13033.787151</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.620496</v>
+        <v>3.6204960000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1344.830000</v>
+        <v>1344.83</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.750000</v>
+        <v>-168.75</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>13044.330145</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.623425</v>
+        <v>3.6234250000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1357.580000</v>
+        <v>1357.58</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.073000</v>
+        <v>-179.07300000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13054.812595</v>
+        <v>13054.812594999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.626337</v>
+        <v>3.6263369999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1378.100000</v>
+        <v>1378.1</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.301000</v>
+        <v>-209.30099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>13065.633285</v>
@@ -4970,73 +5386,73 @@
         <v>3.629343</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1399.780000</v>
+        <v>1399.78</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>13076.665303</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.632407</v>
+        <v>3.6324070000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1424.310000</v>
+        <v>1424.31</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.060000</v>
+        <v>-314.06</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>13087.625934</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.635452</v>
+        <v>3.6354519999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1443.650000</v>
+        <v>1443.65</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.558000</v>
+        <v>-366.55799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>13097.976906</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.638327</v>
+        <v>3.6383269999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG19" s="1">
-        <v>-616.953000</v>
+        <v>-616.95299999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>13109.038188</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.641399</v>
+        <v>3.6413989999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.020000</v>
+        <v>1683.02</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1066.360000</v>
+        <v>-1066.3599999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>13119.472527</v>
@@ -5045,120 +5461,120 @@
         <v>3.644298</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.560000</v>
+        <v>1977.56</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1846.230000</v>
+        <v>-1846.23</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>13130.083936</v>
+        <v>13130.083936000001</v>
       </c>
       <c r="BT19" s="1">
         <v>3.647246</v>
       </c>
       <c r="BU19" s="1">
-        <v>2364.740000</v>
+        <v>2364.7399999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2746.190000</v>
+        <v>-2746.19</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>13140.836706</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.650232</v>
+        <v>3.6502319999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3733.360000</v>
+        <v>-3733.36</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>13153.382017</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.653717</v>
+        <v>3.6537169999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4282.400000</v>
+        <v>4282.3999999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6101.420000</v>
+        <v>-6101.42</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>12981.379898</v>
+        <v>12981.379897999999</v>
       </c>
       <c r="B20" s="1">
-        <v>3.605939</v>
+        <v>3.6059389999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1240.660000</v>
+        <v>1240.6600000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.963000</v>
+        <v>-305.96300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>12992.093464</v>
       </c>
       <c r="G20" s="1">
-        <v>3.608915</v>
+        <v>3.6089150000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1265.680000</v>
+        <v>1265.68</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.055000</v>
+        <v>-264.05500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>13002.591770</v>
+        <v>13002.591770000001</v>
       </c>
       <c r="L20" s="1">
         <v>3.611831</v>
       </c>
       <c r="M20" s="1">
-        <v>1302.700000</v>
+        <v>1302.7</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.142000</v>
+        <v>-202.142</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>13013.156091</v>
+        <v>13013.156091000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.614766</v>
+        <v>3.6147659999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1314.470000</v>
+        <v>1314.47</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.007000</v>
+        <v>-184.00700000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>13023.638508</v>
@@ -5167,43 +5583,43 @@
         <v>3.617677</v>
       </c>
       <c r="W20" s="1">
-        <v>1327.600000</v>
+        <v>1327.6</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.556000</v>
+        <v>-170.55600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>13034.217710</v>
+        <v>13034.217710000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.620616</v>
+        <v>3.6206160000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1344.800000</v>
+        <v>1344.8</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.987000</v>
+        <v>-168.98699999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>13044.597494</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.623499</v>
+        <v>3.6234989999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1357.570000</v>
+        <v>1357.57</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.083000</v>
+        <v>-179.083</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>13055.101267</v>
@@ -5212,58 +5628,58 @@
         <v>3.626417</v>
       </c>
       <c r="AL20" s="1">
-        <v>1378.140000</v>
+        <v>1378.14</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.278000</v>
+        <v>-209.27799999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>13065.992420</v>
+        <v>13065.99242</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.629442</v>
+        <v>3.6294420000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1399.760000</v>
+        <v>1399.76</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.537000</v>
+        <v>-253.53700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>13077.030890</v>
+        <v>13077.03089</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.632509</v>
+        <v>3.6325090000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1424.290000</v>
+        <v>1424.29</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.022000</v>
+        <v>-314.02199999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>13087.987511</v>
+        <v>13087.987510999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.635552</v>
+        <v>3.6355520000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1443.660000</v>
+        <v>1443.66</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.514000</v>
+        <v>-366.51400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>13098.701066</v>
@@ -5272,482 +5688,482 @@
         <v>3.638528</v>
       </c>
       <c r="BF20" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG20" s="1">
-        <v>-616.902000</v>
+        <v>-616.90200000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>13109.416333</v>
+        <v>13109.416332999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>3.641505</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1066.270000</v>
+        <v>-1066.27</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>13119.867341</v>
+        <v>13119.867340999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.644408</v>
+        <v>3.6444079999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.540000</v>
+        <v>1977.54</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1846.240000</v>
+        <v>-1846.24</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>13130.501599</v>
+        <v>13130.501598999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.647362</v>
+        <v>3.6473620000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2364.660000</v>
+        <v>2364.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2746.270000</v>
+        <v>-2746.27</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>13141.563561</v>
+        <v>13141.563561000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.650434</v>
+        <v>3.6504340000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.180000</v>
+        <v>2854.18</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3733.910000</v>
+        <v>-3733.91</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>13154.264897</v>
+        <v>13154.264896999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.653962</v>
+        <v>3.6539619999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4298.740000</v>
+        <v>4298.74</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6101.500000</v>
+        <v>-6101.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>12981.726100</v>
+        <v>12981.7261</v>
       </c>
       <c r="B21" s="1">
-        <v>3.606035</v>
+        <v>3.6060349999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.087000</v>
+        <v>-306.08699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>12992.435190</v>
+        <v>12992.43519</v>
       </c>
       <c r="G21" s="1">
-        <v>3.609010</v>
+        <v>3.6090100000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.801000</v>
+        <v>-264.80099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>13002.940456</v>
       </c>
       <c r="L21" s="1">
-        <v>3.611928</v>
+        <v>3.6119279999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.020000</v>
+        <v>1303.02</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.004000</v>
+        <v>-202.00399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>13013.585627</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.614885</v>
+        <v>3.6148850000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1314.110000</v>
+        <v>1314.11</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.906000</v>
+        <v>-184.90600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>13024.063085</v>
       </c>
       <c r="V21" s="1">
-        <v>3.617795</v>
+        <v>3.6177950000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1327.600000</v>
+        <v>1327.6</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.599000</v>
+        <v>-170.59899999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>13034.496958</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.620694</v>
+        <v>3.6206939999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1344.700000</v>
+        <v>1344.7</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.614000</v>
+        <v>-168.614</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>13044.940690</v>
+        <v>13044.940689999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.623595</v>
+        <v>3.6235949999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1357.520000</v>
+        <v>1357.52</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.017000</v>
+        <v>-179.017</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>13055.450418</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.626514</v>
+        <v>3.6265139999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1378.120000</v>
+        <v>1378.12</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.270000</v>
+        <v>-209.27</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>13066.351492</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.629542</v>
+        <v>3.6295419999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1399.770000</v>
+        <v>1399.77</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.568000</v>
+        <v>-253.56800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>13077.757493</v>
+        <v>13077.757492999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.632710</v>
+        <v>3.6327099999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.023000</v>
+        <v>-314.02300000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>13088.708663</v>
+        <v>13088.708662999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.635752</v>
+        <v>3.6357520000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1443.650000</v>
+        <v>1443.65</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.535000</v>
+        <v>-366.53500000000003</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>13099.091913</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.638637</v>
+        <v>3.6386370000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1528.840000</v>
+        <v>1528.84</v>
       </c>
       <c r="BG21" s="1">
-        <v>-616.964000</v>
+        <v>-616.96400000000006</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>13109.792107</v>
+        <v>13109.792106999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.641609</v>
+        <v>3.6416089999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.030000</v>
+        <v>1683.03</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1066.280000</v>
+        <v>-1066.28</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>13120.288480</v>
+        <v>13120.288479999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.644525</v>
+        <v>3.6445249999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.560000</v>
+        <v>1977.56</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1846.190000</v>
+        <v>-1846.19</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>13131.217332</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.647560</v>
+        <v>3.6475599999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2365.080000</v>
+        <v>2365.08</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2746.170000</v>
+        <v>-2746.17</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>13141.705200</v>
+        <v>13141.7052</v>
       </c>
       <c r="BY21" s="1">
         <v>3.650474</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.370000</v>
+        <v>2854.37</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3733.150000</v>
+        <v>-3733.15</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>13154.466314</v>
+        <v>13154.466313999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.654018</v>
+        <v>3.6540180000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4281.830000</v>
+        <v>4281.83</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6105.690000</v>
+        <v>-6105.69</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>12982.065860</v>
+        <v>12982.065860000001</v>
       </c>
       <c r="B22" s="1">
-        <v>3.606129</v>
+        <v>3.6061290000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1240.250000</v>
+        <v>1240.25</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.919000</v>
+        <v>-305.91899999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>12992.855339</v>
       </c>
       <c r="G22" s="1">
-        <v>3.609126</v>
+        <v>3.6091259999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1266.460000</v>
+        <v>1266.46</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.893000</v>
+        <v>-263.89299999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>13003.364039</v>
       </c>
       <c r="L22" s="1">
-        <v>3.612046</v>
+        <v>3.6120459999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1302.920000</v>
+        <v>1302.92</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.947000</v>
+        <v>-201.947</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>13013.862889</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.614962</v>
+        <v>3.6149619999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1314.190000</v>
+        <v>1314.19</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.934000</v>
+        <v>-184.934</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>13024.371100</v>
+        <v>13024.3711</v>
       </c>
       <c r="V22" s="1">
-        <v>3.617881</v>
+        <v>3.6178810000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1327.630000</v>
+        <v>1327.63</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.610000</v>
+        <v>-170.61</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>13034.846606</v>
+        <v>13034.846605999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.620791</v>
+        <v>3.6207910000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1344.740000</v>
+        <v>1344.74</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.740000</v>
+        <v>-168.74</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>13045.284416</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.623690</v>
+        <v>3.6236899999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1357.580000</v>
+        <v>1357.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.021000</v>
+        <v>-179.02099999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>13055.798612</v>
+        <v>13055.798612000001</v>
       </c>
       <c r="AK22" s="1">
         <v>3.626611</v>
       </c>
       <c r="AL22" s="1">
-        <v>1378.120000</v>
+        <v>1378.12</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.274000</v>
+        <v>-209.274</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>13067.069206</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.629741</v>
+        <v>3.6297410000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.546000</v>
+        <v>-253.54599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>13078.148341</v>
@@ -5756,13 +6172,13 @@
         <v>3.632819</v>
       </c>
       <c r="AV22" s="1">
-        <v>1424.330000</v>
+        <v>1424.33</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.029000</v>
+        <v>-314.029</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>13089.137702</v>
@@ -5771,28 +6187,28 @@
         <v>3.635872</v>
       </c>
       <c r="BA22" s="1">
-        <v>1443.640000</v>
+        <v>1443.64</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.583000</v>
+        <v>-366.58300000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>13099.469400</v>
+        <v>13099.4694</v>
       </c>
       <c r="BE22" s="1">
         <v>3.638741</v>
       </c>
       <c r="BF22" s="1">
-        <v>1528.850000</v>
+        <v>1528.85</v>
       </c>
       <c r="BG22" s="1">
-        <v>-616.917000</v>
+        <v>-616.91700000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>13110.495434</v>
@@ -5801,120 +6217,120 @@
         <v>3.641804</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.020000</v>
+        <v>1683.02</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1066.310000</v>
+        <v>-1066.31</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>13120.997259</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.644721</v>
+        <v>3.6447210000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.460000</v>
+        <v>1977.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1846.280000</v>
+        <v>-1846.28</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>13131.330936</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.647592</v>
+        <v>3.6475919999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2364.650000</v>
+        <v>2364.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2746.170000</v>
+        <v>-2746.17</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>13142.125840</v>
+        <v>13142.125840000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.650591</v>
+        <v>3.6505909999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.350000</v>
+        <v>2853.35</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3733.440000</v>
+        <v>-3733.44</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>13154.983103</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.654162</v>
+        <v>3.6541619999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4289.960000</v>
+        <v>4289.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6121.420000</v>
+        <v>-6121.42</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>12982.487959</v>
       </c>
       <c r="B23" s="1">
-        <v>3.606247</v>
+        <v>3.6062470000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1240.670000</v>
+        <v>1240.67</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.441000</v>
+        <v>-306.44099999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>12993.133557</v>
+        <v>12993.133556999999</v>
       </c>
       <c r="G23" s="1">
-        <v>3.609204</v>
+        <v>3.6092040000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1266.360000</v>
+        <v>1266.3599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.831000</v>
+        <v>-263.83100000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>13003.641809</v>
+        <v>13003.641809000001</v>
       </c>
       <c r="L23" s="1">
         <v>3.612123</v>
       </c>
       <c r="M23" s="1">
-        <v>1302.740000</v>
+        <v>1302.74</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.780000</v>
+        <v>-201.78</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>13014.211577</v>
@@ -5923,225 +6339,225 @@
         <v>3.615059</v>
       </c>
       <c r="R23" s="1">
-        <v>1314.200000</v>
+        <v>1314.2</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.913000</v>
+        <v>-184.91300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>13024.710363</v>
       </c>
       <c r="V23" s="1">
-        <v>3.617975</v>
+        <v>3.6179749999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1327.730000</v>
+        <v>1327.73</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.573000</v>
+        <v>-170.57300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>13035.194335</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.620887</v>
+        <v>3.6208870000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1344.730000</v>
+        <v>1344.73</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.800000</v>
+        <v>-168.8</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>13045.970415</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.623881</v>
+        <v>3.6238809999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1357.550000</v>
+        <v>1357.55</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.107000</v>
+        <v>-179.107</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>13056.496977</v>
+        <v>13056.496977000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.626805</v>
+        <v>3.6268050000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.300000</v>
+        <v>-209.3</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>13067.434259</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.629843</v>
+        <v>3.6298430000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1399.740000</v>
+        <v>1399.74</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.552000</v>
+        <v>-253.55199999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>13078.514884</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.632921</v>
+        <v>3.6329210000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1424.310000</v>
+        <v>1424.31</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.039000</v>
+        <v>-314.03899999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>13089.460607</v>
+        <v>13089.460607000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>3.635961</v>
       </c>
       <c r="BA23" s="1">
-        <v>1443.620000</v>
+        <v>1443.62</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>13100.154345</v>
+        <v>13100.154345000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.638932</v>
+        <v>3.6389320000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1528.840000</v>
+        <v>1528.84</v>
       </c>
       <c r="BG23" s="1">
-        <v>-616.899000</v>
+        <v>-616.899</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>13110.919056</v>
+        <v>13110.919056000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.641922</v>
+        <v>3.6419220000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1066.300000</v>
+        <v>-1066.3</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>13121.123211</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.644756</v>
+        <v>3.6447560000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.400000</v>
+        <v>1977.4</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1846.090000</v>
+        <v>-1846.09</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>13131.770830</v>
+        <v>13131.770829999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.647714</v>
+        <v>3.6477140000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2364.730000</v>
+        <v>2364.73</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2746.130000</v>
+        <v>-2746.13</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>13142.549392</v>
+        <v>13142.549392000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.650708</v>
+        <v>3.6507079999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.130000</v>
+        <v>2854.13</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3733.490000</v>
+        <v>-3733.49</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>13155.577806</v>
+        <v>13155.577805999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.654327</v>
+        <v>3.6543269999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4304.570000</v>
+        <v>4304.57</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6109.270000</v>
+        <v>-6109.27</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>12982.768660</v>
+        <v>12982.76866</v>
       </c>
       <c r="B24" s="1">
         <v>3.606325</v>
       </c>
       <c r="C24" s="1">
-        <v>1240.870000</v>
+        <v>1240.8699999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.373000</v>
+        <v>-306.37299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>12993.477813</v>
@@ -6150,148 +6566,148 @@
         <v>3.609299</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.010000</v>
+        <v>1267.01</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.263000</v>
+        <v>-263.26299999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>13003.986551</v>
       </c>
       <c r="L24" s="1">
-        <v>3.612218</v>
+        <v>3.6122179999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1302.820000</v>
+        <v>1302.82</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.788000</v>
+        <v>-201.78800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>13014.560729</v>
+        <v>13014.560729000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.615156</v>
+        <v>3.6151559999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1314.330000</v>
+        <v>1314.33</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.938000</v>
+        <v>-184.93799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>13025.396330</v>
+        <v>13025.39633</v>
       </c>
       <c r="V24" s="1">
         <v>3.618166</v>
       </c>
       <c r="W24" s="1">
-        <v>1327.580000</v>
+        <v>1327.58</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.625000</v>
+        <v>-170.625</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>13035.891213</v>
+        <v>13035.891213000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.621081</v>
+        <v>3.6210810000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1344.810000</v>
+        <v>1344.81</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.679000</v>
+        <v>-168.679</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>13046.313614</v>
+        <v>13046.313614000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.623976</v>
+        <v>3.6239759999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1357.600000</v>
+        <v>1357.6</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.056000</v>
+        <v>-179.05600000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>13056.845665</v>
+        <v>13056.845665000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.626902</v>
+        <v>3.6269019999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1378.130000</v>
+        <v>1378.13</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.289000</v>
+        <v>-209.28899999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>13067.793362</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.629943</v>
+        <v>3.6299429999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1399.750000</v>
+        <v>1399.75</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.521000</v>
+        <v>-253.52099999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>13079.200355</v>
+        <v>13079.200355000001</v>
       </c>
       <c r="AU24" s="1">
         <v>3.633111</v>
       </c>
       <c r="AV24" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.000000</v>
+        <v>-314</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>13089.913974</v>
+        <v>13089.913973999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.636087</v>
+        <v>3.6360869999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1443.620000</v>
+        <v>1443.62</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.566000</v>
+        <v>-366.56599999999997</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>13100.555111</v>
@@ -6300,165 +6716,165 @@
         <v>3.639043</v>
       </c>
       <c r="BF24" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG24" s="1">
-        <v>-616.841000</v>
+        <v>-616.84100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>13111.291049</v>
+        <v>13111.291048999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.642025</v>
+        <v>3.6420249999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1066.280000</v>
+        <v>-1066.28</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>13121.538859</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.644872</v>
+        <v>3.6448719999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.490000</v>
+        <v>1977.49</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1846.030000</v>
+        <v>-1846.03</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>13132.181026</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.647828</v>
+        <v>3.6478280000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.640000</v>
+        <v>2364.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2746.240000</v>
+        <v>-2746.24</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>13142.971983</v>
+        <v>13142.971982999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.650826</v>
+        <v>3.6508259999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2854.260000</v>
+        <v>2854.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3732.760000</v>
+        <v>-3732.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>13156.018781</v>
+        <v>13156.018781000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.654450</v>
+        <v>3.6544500000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4291.820000</v>
+        <v>4291.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6096.560000</v>
+        <v>-6096.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>12983.107954</v>
+        <v>12983.107953999999</v>
       </c>
       <c r="B25" s="1">
-        <v>3.606419</v>
+        <v>3.6064189999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.530000</v>
+        <v>1240.53</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.212000</v>
+        <v>-306.21199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>12993.835892</v>
+        <v>12993.835891999999</v>
       </c>
       <c r="G25" s="1">
-        <v>3.609399</v>
+        <v>3.6093989999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1266.150000</v>
+        <v>1266.1500000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.034000</v>
+        <v>-264.03399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>13004.335702</v>
       </c>
       <c r="L25" s="1">
-        <v>3.612315</v>
+        <v>3.6123150000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1303.360000</v>
+        <v>1303.3599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.970000</v>
+        <v>-201.97</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>13015.256647</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.615349</v>
+        <v>3.6153490000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1314.280000</v>
+        <v>1314.28</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.994000</v>
+        <v>-184.994</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>13025.742539</v>
+        <v>13025.742539000001</v>
       </c>
       <c r="V25" s="1">
-        <v>3.618262</v>
+        <v>3.6182620000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1327.660000</v>
+        <v>1327.66</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.638000</v>
+        <v>-170.63800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>13036.239372</v>
@@ -6467,28 +6883,28 @@
         <v>3.621178</v>
       </c>
       <c r="AB25" s="1">
-        <v>1344.650000</v>
+        <v>1344.65</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>13046.659326</v>
+        <v>13046.659326000001</v>
       </c>
       <c r="AF25" s="1">
         <v>3.624072</v>
       </c>
       <c r="AG25" s="1">
-        <v>1357.520000</v>
+        <v>1357.52</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.013000</v>
+        <v>-179.01300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>13057.503359</v>
@@ -6497,407 +6913,408 @@
         <v>3.627084</v>
       </c>
       <c r="AL25" s="1">
-        <v>1378.090000</v>
+        <v>1378.09</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.264000</v>
+        <v>-209.26400000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>13068.457011</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.630127</v>
+        <v>3.6301269999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1399.740000</v>
+        <v>1399.74</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.558000</v>
+        <v>-253.55799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>13079.607603</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.633224</v>
+        <v>3.6332239999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1424.300000</v>
+        <v>1424.3</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.002000</v>
+        <v>-314.00200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>13090.179798</v>
+        <v>13090.179797999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>3.636161</v>
       </c>
       <c r="BA25" s="1">
-        <v>1443.650000</v>
+        <v>1443.65</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.569000</v>
+        <v>-366.56900000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>13100.944009</v>
+        <v>13100.944009000001</v>
       </c>
       <c r="BE25" s="1">
         <v>3.639151</v>
       </c>
       <c r="BF25" s="1">
-        <v>1528.890000</v>
+        <v>1528.89</v>
       </c>
       <c r="BG25" s="1">
-        <v>-616.890000</v>
+        <v>-616.89</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>13111.669960</v>
+        <v>13111.669959999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>3.642131</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.020000</v>
+        <v>1683.02</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1066.270000</v>
+        <v>-1066.27</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>13121.929707</v>
+        <v>13121.929706999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.644980</v>
+        <v>3.6449799999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.500000</v>
+        <v>1977.5</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1846.070000</v>
+        <v>-1846.07</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>13132.617004</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.647949</v>
+        <v>3.6479490000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2364.710000</v>
+        <v>2364.71</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2746.040000</v>
+        <v>-2746.04</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>13143.413918</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.650948</v>
+        <v>3.6509480000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2853.430000</v>
+        <v>2853.43</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3732.230000</v>
+        <v>-3732.23</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>13156.536573</v>
+        <v>13156.536572999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.654593</v>
+        <v>3.6545930000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>4280.540000</v>
+        <v>4280.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6108.140000</v>
+        <v>-6108.14</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>12983.450162</v>
+        <v>12983.450161999999</v>
       </c>
       <c r="B26" s="1">
-        <v>3.606514</v>
+        <v>3.6065140000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.810000</v>
+        <v>1240.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.303000</v>
+        <v>-306.303</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>12994.520371</v>
+        <v>12994.520371000001</v>
       </c>
       <c r="G26" s="1">
-        <v>3.609589</v>
+        <v>3.6095890000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.060000</v>
+        <v>1267.06</v>
       </c>
       <c r="I26" s="1">
-        <v>-263.834000</v>
+        <v>-263.834</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>13005.029109</v>
+        <v>13005.029108999999</v>
       </c>
       <c r="L26" s="1">
-        <v>3.612508</v>
+        <v>3.6125080000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1302.780000</v>
+        <v>1302.78</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.791000</v>
+        <v>-201.791</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>13015.608808</v>
+        <v>13015.608808000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.615447</v>
+        <v>3.6154470000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1314.230000</v>
+        <v>1314.23</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.990000</v>
+        <v>-184.99</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>13026.083820</v>
+        <v>13026.08382</v>
       </c>
       <c r="V26" s="1">
         <v>3.618357</v>
       </c>
       <c r="W26" s="1">
-        <v>1327.500000</v>
+        <v>1327.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.679000</v>
+        <v>-170.679</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>13036.587564</v>
+        <v>13036.587563999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.621274</v>
+        <v>3.6212740000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1344.850000</v>
+        <v>1344.85</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.758000</v>
+        <v>-168.75800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>13047.316030</v>
+        <v>13047.31603</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.624254</v>
+        <v>3.6242540000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1357.570000</v>
+        <v>1357.57</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.013000</v>
+        <v>-179.01300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>13057.883327</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.627190</v>
+        <v>3.6271900000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1378.150000</v>
+        <v>1378.15</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.318000</v>
+        <v>-209.31800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>13068.904401</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.630251</v>
+        <v>3.6302509999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1399.760000</v>
+        <v>1399.76</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.550000</v>
+        <v>-253.55</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>13079.973122</v>
+        <v>13079.973121999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.633326</v>
+        <v>3.6333259999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1424.280000</v>
+        <v>1424.28</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.018000</v>
+        <v>-314.01799999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>13090.540388</v>
+        <v>13090.540387999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.636261</v>
+        <v>3.6362610000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1443.570000</v>
+        <v>1443.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.605000</v>
+        <v>-366.60500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>13101.303617</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.639251</v>
+        <v>3.6392509999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1528.860000</v>
+        <v>1528.86</v>
       </c>
       <c r="BG26" s="1">
-        <v>-616.911000</v>
+        <v>-616.91099999999994</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>13112.099378</v>
+        <v>13112.099378000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.642250</v>
+        <v>3.6422500000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.980000</v>
+        <v>1682.98</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1066.230000</v>
+        <v>-1066.23</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>13122.420761</v>
+        <v>13122.420760999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.645117</v>
+        <v>3.6451169999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.320000</v>
+        <v>1977.32</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1846.080000</v>
+        <v>-1846.08</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>13133.016284</v>
+        <v>13133.016283999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.648060</v>
+        <v>3.6480600000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2364.430000</v>
+        <v>2364.4299999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2745.960000</v>
+        <v>-2745.96</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>13143.836510</v>
+        <v>13143.836509999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.651066</v>
+        <v>3.6510660000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2853.010000</v>
+        <v>2853.01</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3732.980000</v>
+        <v>-3732.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>13157.054429</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.654737</v>
+        <v>3.6547369999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4291.830000</v>
+        <v>4291.83</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6117.590000</v>
+        <v>-6117.59</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>